--- a/excel-form.xlsx
+++ b/excel-form.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="106">
   <si>
     <t>STT</t>
   </si>
@@ -34,6 +34,15 @@
     <t>Kết quả</t>
   </si>
   <si>
+    <t>Số phiếu</t>
+  </si>
+  <si>
+    <t>Loại mẫu</t>
+  </si>
+  <si>
+    <t>Lượng mẫu xét nghiệm</t>
+  </si>
+  <si>
     <t>01</t>
   </si>
   <si>
@@ -46,6 +55,12 @@
     <t>Âm tính</t>
   </si>
   <si>
+    <t>165-19</t>
+  </si>
+  <si>
+    <t>Swab</t>
+  </si>
+  <si>
     <t>Phát hiện vi rút dịch tả lợn Cổ Điển</t>
   </si>
   <si>
@@ -85,6 +100,12 @@
     <t>Âm tính (+)</t>
   </si>
   <si>
+    <t>177-19</t>
+  </si>
+  <si>
+    <t>Huyết thanh</t>
+  </si>
+  <si>
     <t>A-06 đến A10</t>
   </si>
   <si>
@@ -103,12 +124,24 @@
     <t>03</t>
   </si>
   <si>
+    <t>181-19</t>
+  </si>
+  <si>
+    <t>Nguyên con</t>
+  </si>
+  <si>
     <t>04</t>
   </si>
   <si>
     <t>Phát hiện Vi rút Tai xanh chủng Trung Quốc</t>
   </si>
   <si>
+    <t>198-19</t>
+  </si>
+  <si>
+    <t>Phủ tạng</t>
+  </si>
+  <si>
     <t>Phát hiện Vi rút Tai xanh chủng Châu Âu</t>
   </si>
   <si>
@@ -142,6 +175,12 @@
     <t>01 đến 05</t>
   </si>
   <si>
+    <t>199-19</t>
+  </si>
+  <si>
+    <t>Máu</t>
+  </si>
+  <si>
     <t>06 đến 10</t>
   </si>
   <si>
@@ -163,6 +202,9 @@
     <t>Phát hiện vi rút Tai xanh chủng Trung Quốc</t>
   </si>
   <si>
+    <t>200-19</t>
+  </si>
+  <si>
     <t>Phát hiện vi rút Tai xanh chủng Châu Âu</t>
   </si>
   <si>
@@ -172,21 +214,42 @@
     <t>Âm tính (-)</t>
   </si>
   <si>
+    <t>201-19</t>
+  </si>
+  <si>
     <t>09</t>
   </si>
   <si>
+    <t>256-19</t>
+  </si>
+  <si>
     <t>LĐ-BLA Hiếu (01 đến 05)</t>
   </si>
   <si>
     <t>Vi rút Dịch tả lợn Châu Phi</t>
   </si>
   <si>
+    <t>258-19</t>
+  </si>
+  <si>
     <t>Phát hiện vi rút gây bệnh Tai xanh chủng Châu Âu</t>
   </si>
   <si>
     <t>Phát hiện vi rút gây bệnh Tai xanh chủng Trung Quốc</t>
   </si>
   <si>
+    <t>257-19</t>
+  </si>
+  <si>
+    <t>260-19</t>
+  </si>
+  <si>
+    <t>Nước</t>
+  </si>
+  <si>
+    <t>259-19</t>
+  </si>
+  <si>
     <t>Phát hiện vi rút gây bệnh Tai xanh chủng Bắc Mỹ</t>
   </si>
   <si>
@@ -196,12 +259,27 @@
     <t>Phát hiện vi rút Dịch tả lợn Cổ điển</t>
   </si>
   <si>
+    <t>261-19</t>
+  </si>
+  <si>
+    <t>262-19</t>
+  </si>
+  <si>
+    <t>263-19</t>
+  </si>
+  <si>
     <t>CJ 01</t>
   </si>
   <si>
+    <t>264-19</t>
+  </si>
+  <si>
     <t>ĐS01</t>
   </si>
   <si>
+    <t>265-19</t>
+  </si>
+  <si>
     <t>ĐS02</t>
   </si>
   <si>
@@ -220,6 +298,9 @@
     <t>CJ01</t>
   </si>
   <si>
+    <t>266-19</t>
+  </si>
+  <si>
     <t>CJ02</t>
   </si>
   <si>
@@ -235,10 +316,25 @@
     <t>CJ06</t>
   </si>
   <si>
+    <t>267-19</t>
+  </si>
+  <si>
+    <t>Máu + Phủ tạng</t>
+  </si>
+  <si>
     <t>Phát hiện vi trùng gây bệnh Đóng dấu lợn</t>
   </si>
   <si>
+    <t>268-19</t>
+  </si>
+  <si>
+    <t>269-19</t>
+  </si>
+  <si>
     <t>Dương tính (+)</t>
+  </si>
+  <si>
+    <t>197-19</t>
   </si>
 </sst>
 </file>
@@ -580,7 +676,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:E95"/>
+  <dimension ref="A1:H95"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -588,7 +684,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -604,573 +700,663 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
       <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="D5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="D7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7"/>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8"/>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="D9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9"/>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10"/>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="D11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11"/>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12"/>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="D13" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14"/>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="D15" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15"/>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E16" t="s">
+        <v>26</v>
+      </c>
+      <c r="F16" t="s">
+        <v>27</v>
+      </c>
+      <c r="G16" t="s">
+        <v>28</v>
+      </c>
+      <c r="H16"/>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>29</v>
+      </c>
+      <c r="D17" t="s">
+        <v>25</v>
+      </c>
+      <c r="E17" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18" t="s">
+        <v>30</v>
+      </c>
+      <c r="D18" t="s">
+        <v>25</v>
+      </c>
+      <c r="E18" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19" t="s">
+        <v>31</v>
+      </c>
+      <c r="D19" t="s">
+        <v>25</v>
+      </c>
+      <c r="E19" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20" t="s">
+        <v>32</v>
+      </c>
+      <c r="D20" t="s">
+        <v>25</v>
+      </c>
+      <c r="E20" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21" t="s">
+        <v>33</v>
+      </c>
+      <c r="D21" t="s">
+        <v>25</v>
+      </c>
+      <c r="E21" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" t="s">
+        <v>34</v>
+      </c>
+      <c r="F22" t="s">
+        <v>35</v>
+      </c>
+      <c r="G22" t="s">
+        <v>36</v>
+      </c>
+      <c r="H22"/>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" t="s">
+        <v>37</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23" t="s">
+        <v>8</v>
+      </c>
+      <c r="D23" t="s">
+        <v>38</v>
+      </c>
+      <c r="E23" t="s">
+        <v>11</v>
+      </c>
+      <c r="F23" t="s">
+        <v>39</v>
+      </c>
+      <c r="G23" t="s">
+        <v>40</v>
+      </c>
+      <c r="H23"/>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="D24" t="s">
+        <v>41</v>
+      </c>
+      <c r="E24" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="D25" t="s">
+        <v>42</v>
+      </c>
+      <c r="E25" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" t="s">
+        <v>43</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26" t="s">
+        <v>44</v>
+      </c>
+      <c r="D26" t="s">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>11</v>
+      </c>
+      <c r="F26">
+        <v>197.19</v>
+      </c>
+      <c r="G26" t="s">
+        <v>28</v>
+      </c>
+      <c r="H26"/>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27" t="s">
+        <v>45</v>
+      </c>
+      <c r="D27" t="s">
+        <v>25</v>
+      </c>
+      <c r="E27" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28" t="s">
+        <v>46</v>
+      </c>
+      <c r="D28" t="s">
+        <v>25</v>
+      </c>
+      <c r="E28" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29" t="s">
+        <v>47</v>
+      </c>
+      <c r="D29" t="s">
+        <v>25</v>
+      </c>
+      <c r="E29" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="C30" t="s">
+        <v>48</v>
+      </c>
+      <c r="D30" t="s">
+        <v>25</v>
+      </c>
+      <c r="E30" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="B31">
+        <v>1</v>
+      </c>
+      <c r="C31" t="s">
+        <v>49</v>
+      </c>
+      <c r="D31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" t="s">
+        <v>50</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="C32" t="s">
+        <v>51</v>
+      </c>
+      <c r="D32" t="s">
+        <v>25</v>
+      </c>
+      <c r="E32" t="s">
+        <v>11</v>
+      </c>
+      <c r="F32" t="s">
+        <v>52</v>
+      </c>
+      <c r="G32" t="s">
+        <v>53</v>
+      </c>
+      <c r="H32"/>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="B33">
+        <v>1</v>
+      </c>
+      <c r="C33" t="s">
+        <v>54</v>
+      </c>
+      <c r="D33" t="s">
+        <v>25</v>
+      </c>
+      <c r="E33" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="B34">
+        <v>1</v>
+      </c>
+      <c r="C34" t="s">
+        <v>55</v>
+      </c>
+      <c r="D34" t="s">
+        <v>25</v>
+      </c>
+      <c r="E34" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="B35">
+        <v>1</v>
+      </c>
+      <c r="C35" t="s">
+        <v>56</v>
+      </c>
+      <c r="D35" t="s">
+        <v>25</v>
+      </c>
+      <c r="E35" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="B36">
+        <v>1</v>
+      </c>
+      <c r="C36" t="s">
+        <v>57</v>
+      </c>
+      <c r="D36" t="s">
+        <v>25</v>
+      </c>
+      <c r="E36" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="B37">
+        <v>1</v>
+      </c>
+      <c r="C37" t="s">
+        <v>58</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" t="s">
+        <v>59</v>
+      </c>
+      <c r="B38" t="s">
+        <v>8</v>
+      </c>
+      <c r="C38" t="s">
+        <v>8</v>
+      </c>
+      <c r="D38" t="s">
+        <v>60</v>
+      </c>
+      <c r="E38" t="s">
+        <v>11</v>
+      </c>
+      <c r="F38" t="s">
+        <v>61</v>
+      </c>
+      <c r="G38" t="s">
+        <v>53</v>
+      </c>
+      <c r="H38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="D39" t="s">
+        <v>62</v>
+      </c>
+      <c r="E39" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" t="s">
+        <v>63</v>
+      </c>
+      <c r="B40">
+        <v>1</v>
+      </c>
+      <c r="C40" t="s">
+        <v>44</v>
+      </c>
+      <c r="D40" t="s">
+        <v>25</v>
+      </c>
+      <c r="E40" t="s">
+        <v>64</v>
+      </c>
+      <c r="F40" t="s">
+        <v>65</v>
+      </c>
+      <c r="G40" t="s">
+        <v>28</v>
+      </c>
+      <c r="H40">
         <v>6</v>
       </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="D3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="D5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="D7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7"/>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E8"/>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="D9" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9"/>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="B10">
-        <v>1</v>
-      </c>
-      <c r="C10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10" t="s">
-        <v>7</v>
-      </c>
-      <c r="E10"/>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="D11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11"/>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="B12">
-        <v>1</v>
-      </c>
-      <c r="C12" t="s">
-        <v>16</v>
-      </c>
-      <c r="D12" t="s">
-        <v>7</v>
-      </c>
-      <c r="E12"/>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="D13" t="s">
-        <v>9</v>
-      </c>
-      <c r="E13"/>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="B14">
-        <v>1</v>
-      </c>
-      <c r="C14" t="s">
-        <v>17</v>
-      </c>
-      <c r="D14" t="s">
-        <v>7</v>
-      </c>
-      <c r="E14"/>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="D15" t="s">
-        <v>9</v>
-      </c>
-      <c r="E15"/>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" t="s">
-        <v>18</v>
-      </c>
-      <c r="B16">
-        <v>1</v>
-      </c>
-      <c r="C16" t="s">
-        <v>19</v>
-      </c>
-      <c r="D16" t="s">
-        <v>20</v>
-      </c>
-      <c r="E16" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="B17">
-        <v>1</v>
-      </c>
-      <c r="C17" t="s">
-        <v>22</v>
-      </c>
-      <c r="D17" t="s">
-        <v>20</v>
-      </c>
-      <c r="E17" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="B18">
-        <v>1</v>
-      </c>
-      <c r="C18" t="s">
-        <v>23</v>
-      </c>
-      <c r="D18" t="s">
-        <v>20</v>
-      </c>
-      <c r="E18" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="B19">
-        <v>1</v>
-      </c>
-      <c r="C19" t="s">
-        <v>24</v>
-      </c>
-      <c r="D19" t="s">
-        <v>20</v>
-      </c>
-      <c r="E19" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="B20">
-        <v>1</v>
-      </c>
-      <c r="C20" t="s">
-        <v>25</v>
-      </c>
-      <c r="D20" t="s">
-        <v>20</v>
-      </c>
-      <c r="E20" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="B21">
-        <v>1</v>
-      </c>
-      <c r="C21" t="s">
-        <v>26</v>
-      </c>
-      <c r="D21" t="s">
-        <v>20</v>
-      </c>
-      <c r="E21" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" t="s">
-        <v>28</v>
-      </c>
-      <c r="B23">
-        <v>1</v>
-      </c>
-      <c r="C23" t="s">
-        <v>5</v>
-      </c>
-      <c r="D23" t="s">
-        <v>29</v>
-      </c>
-      <c r="E23" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="D24" t="s">
-        <v>30</v>
-      </c>
-      <c r="E24" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="D25" t="s">
-        <v>31</v>
-      </c>
-      <c r="E25" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" t="s">
-        <v>32</v>
-      </c>
-      <c r="B26">
-        <v>1</v>
-      </c>
-      <c r="C26" t="s">
-        <v>33</v>
-      </c>
-      <c r="D26" t="s">
-        <v>20</v>
-      </c>
-      <c r="E26" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="B27">
-        <v>1</v>
-      </c>
-      <c r="C27" t="s">
-        <v>34</v>
-      </c>
-      <c r="D27" t="s">
-        <v>20</v>
-      </c>
-      <c r="E27" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="B28">
-        <v>1</v>
-      </c>
-      <c r="C28" t="s">
-        <v>35</v>
-      </c>
-      <c r="D28" t="s">
-        <v>20</v>
-      </c>
-      <c r="E28" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="B29">
-        <v>1</v>
-      </c>
-      <c r="C29" t="s">
-        <v>36</v>
-      </c>
-      <c r="D29" t="s">
-        <v>20</v>
-      </c>
-      <c r="E29" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
-      <c r="B30">
-        <v>1</v>
-      </c>
-      <c r="C30" t="s">
-        <v>37</v>
-      </c>
-      <c r="D30" t="s">
-        <v>20</v>
-      </c>
-      <c r="E30" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
-      <c r="B31">
-        <v>1</v>
-      </c>
-      <c r="C31" t="s">
-        <v>38</v>
-      </c>
-      <c r="D31" t="s">
-        <v>20</v>
-      </c>
-      <c r="E31" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
-      <c r="A32" t="s">
-        <v>39</v>
-      </c>
-      <c r="B32">
-        <v>1</v>
-      </c>
-      <c r="C32" t="s">
+    </row>
+    <row r="41" spans="1:8">
+      <c r="B41">
+        <v>1</v>
+      </c>
+      <c r="C41" t="s">
+        <v>45</v>
+      </c>
+      <c r="D41" t="s">
+        <v>25</v>
+      </c>
+      <c r="E41" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="B42">
+        <v>1</v>
+      </c>
+      <c r="C42" t="s">
+        <v>46</v>
+      </c>
+      <c r="D42" t="s">
+        <v>25</v>
+      </c>
+      <c r="E42" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="B43">
+        <v>1</v>
+      </c>
+      <c r="C43" t="s">
+        <v>47</v>
+      </c>
+      <c r="D43" t="s">
+        <v>25</v>
+      </c>
+      <c r="E43" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="B44">
+        <v>1</v>
+      </c>
+      <c r="C44" t="s">
+        <v>48</v>
+      </c>
+      <c r="D44" t="s">
+        <v>25</v>
+      </c>
+      <c r="E44" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="B45">
+        <v>1</v>
+      </c>
+      <c r="C45" t="s">
+        <v>49</v>
+      </c>
+      <c r="D45" t="s">
+        <v>25</v>
+      </c>
+      <c r="E45" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46" t="s">
+        <v>66</v>
+      </c>
+      <c r="F46" t="s">
+        <v>67</v>
+      </c>
+      <c r="G46" t="s">
         <v>40</v>
       </c>
-      <c r="D32" t="s">
-        <v>20</v>
-      </c>
-      <c r="E32" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
-      <c r="B33">
-        <v>1</v>
-      </c>
-      <c r="C33" t="s">
-        <v>41</v>
-      </c>
-      <c r="D33" t="s">
-        <v>20</v>
-      </c>
-      <c r="E33" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
-      <c r="B34">
-        <v>1</v>
-      </c>
-      <c r="C34" t="s">
-        <v>42</v>
-      </c>
-      <c r="D34" t="s">
-        <v>20</v>
-      </c>
-      <c r="E34" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
-      <c r="B35">
-        <v>1</v>
-      </c>
-      <c r="C35" t="s">
-        <v>43</v>
-      </c>
-      <c r="D35" t="s">
-        <v>20</v>
-      </c>
-      <c r="E35" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
-      <c r="B36">
-        <v>1</v>
-      </c>
-      <c r="C36" t="s">
-        <v>44</v>
-      </c>
-      <c r="D36" t="s">
-        <v>20</v>
-      </c>
-      <c r="E36" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
-      <c r="B37">
-        <v>1</v>
-      </c>
-      <c r="C37" t="s">
-        <v>45</v>
-      </c>
-      <c r="D37" t="s">
-        <v>20</v>
-      </c>
-      <c r="E37" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5">
-      <c r="A38" t="s">
-        <v>46</v>
-      </c>
-      <c r="B38" t="s">
-        <v>5</v>
-      </c>
-      <c r="C38" t="s">
-        <v>5</v>
-      </c>
-      <c r="D38" t="s">
-        <v>47</v>
-      </c>
-      <c r="E38" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
-      <c r="D39" t="s">
-        <v>48</v>
-      </c>
-      <c r="E39" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
-      <c r="A40" t="s">
-        <v>49</v>
-      </c>
-      <c r="B40">
-        <v>1</v>
-      </c>
-      <c r="C40" t="s">
-        <v>33</v>
-      </c>
-      <c r="D40" t="s">
-        <v>20</v>
-      </c>
-      <c r="E40" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
-      <c r="B41">
-        <v>1</v>
-      </c>
-      <c r="C41" t="s">
-        <v>34</v>
-      </c>
-      <c r="D41" t="s">
-        <v>20</v>
-      </c>
-      <c r="E41" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
-      <c r="B42">
-        <v>1</v>
-      </c>
-      <c r="C42" t="s">
-        <v>35</v>
-      </c>
-      <c r="D42" t="s">
-        <v>20</v>
-      </c>
-      <c r="E42" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
-      <c r="B43">
-        <v>1</v>
-      </c>
-      <c r="C43" t="s">
-        <v>36</v>
-      </c>
-      <c r="D43" t="s">
-        <v>20</v>
-      </c>
-      <c r="E43" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
-      <c r="B44">
-        <v>1</v>
-      </c>
-      <c r="C44" t="s">
-        <v>37</v>
-      </c>
-      <c r="D44" t="s">
-        <v>20</v>
-      </c>
-      <c r="E44" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
-      <c r="B45">
-        <v>1</v>
-      </c>
-      <c r="C45" t="s">
-        <v>38</v>
-      </c>
-      <c r="D45" t="s">
-        <v>20</v>
-      </c>
-      <c r="E45" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5">
-      <c r="A46" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+      <c r="H46"/>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47">
         <v>10</v>
       </c>
-    </row>
-    <row r="48" spans="1:5">
+      <c r="F47" t="s">
+        <v>67</v>
+      </c>
+      <c r="G47" t="s">
+        <v>40</v>
+      </c>
+      <c r="H47"/>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48">
         <v>11</v>
       </c>
-    </row>
-    <row r="49" spans="1:5">
+      <c r="F48" t="s">
+        <v>67</v>
+      </c>
+      <c r="G48" t="s">
+        <v>40</v>
+      </c>
+      <c r="H48"/>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49">
         <v>12</v>
       </c>
@@ -1178,16 +1364,23 @@
         <v>1</v>
       </c>
       <c r="C49" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="D49" t="s">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="E49" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5">
+        <v>64</v>
+      </c>
+      <c r="F49" t="s">
+        <v>67</v>
+      </c>
+      <c r="G49" t="s">
+        <v>40</v>
+      </c>
+      <c r="H49"/>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50">
         <v>13</v>
       </c>
@@ -1195,26 +1388,33 @@
         <v>1</v>
       </c>
       <c r="C50" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D50" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E50"/>
-    </row>
-    <row r="51" spans="1:5">
+      <c r="F50" t="s">
+        <v>70</v>
+      </c>
+      <c r="G50" t="s">
+        <v>53</v>
+      </c>
+      <c r="H50"/>
+    </row>
+    <row r="51" spans="1:8">
       <c r="D51" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="E51"/>
     </row>
-    <row r="52" spans="1:5">
+    <row r="52" spans="1:8">
       <c r="D52" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="E52"/>
     </row>
-    <row r="53" spans="1:5">
+    <row r="53" spans="1:8">
       <c r="A53">
         <v>14</v>
       </c>
@@ -1222,26 +1422,33 @@
         <v>1</v>
       </c>
       <c r="C53" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D53" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E53"/>
-    </row>
-    <row r="54" spans="1:5">
+      <c r="F53" t="s">
+        <v>73</v>
+      </c>
+      <c r="G53" t="s">
+        <v>53</v>
+      </c>
+      <c r="H53"/>
+    </row>
+    <row r="54" spans="1:8">
       <c r="D54" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="E54"/>
     </row>
-    <row r="55" spans="1:5">
+    <row r="55" spans="1:8">
       <c r="D55" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="E55"/>
     </row>
-    <row r="56" spans="1:5">
+    <row r="56" spans="1:8">
       <c r="A56">
         <v>15</v>
       </c>
@@ -1249,14 +1456,21 @@
         <v>1</v>
       </c>
       <c r="C56" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D56" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E56"/>
-    </row>
-    <row r="57" spans="1:5">
+      <c r="F56" t="s">
+        <v>74</v>
+      </c>
+      <c r="G56" t="s">
+        <v>75</v>
+      </c>
+      <c r="H56"/>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57">
         <v>16</v>
       </c>
@@ -1264,32 +1478,39 @@
         <v>1</v>
       </c>
       <c r="C57" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D57" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E57"/>
-    </row>
-    <row r="58" spans="1:5">
+      <c r="F57" t="s">
+        <v>76</v>
+      </c>
+      <c r="G57" t="s">
+        <v>40</v>
+      </c>
+      <c r="H57"/>
+    </row>
+    <row r="58" spans="1:8">
       <c r="D58" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="E58"/>
     </row>
-    <row r="59" spans="1:5">
+    <row r="59" spans="1:8">
       <c r="D59" t="s">
-        <v>56</v>
+        <v>77</v>
       </c>
       <c r="E59"/>
     </row>
-    <row r="60" spans="1:5">
+    <row r="60" spans="1:8">
       <c r="D60" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="E60"/>
     </row>
-    <row r="61" spans="1:5">
+    <row r="61" spans="1:8">
       <c r="A61">
         <v>17</v>
       </c>
@@ -1297,14 +1518,23 @@
         <v>1</v>
       </c>
       <c r="C61" t="s">
-        <v>57</v>
+        <v>78</v>
       </c>
       <c r="D61" t="s">
-        <v>58</v>
+        <v>79</v>
       </c>
       <c r="E61"/>
-    </row>
-    <row r="62" spans="1:5">
+      <c r="F61" t="s">
+        <v>80</v>
+      </c>
+      <c r="G61" t="s">
+        <v>40</v>
+      </c>
+      <c r="H61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62">
         <v>18</v>
       </c>
@@ -1312,20 +1542,29 @@
         <v>1</v>
       </c>
       <c r="C62" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D62" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="E62"/>
-    </row>
-    <row r="63" spans="1:5">
+      <c r="F62" t="s">
+        <v>81</v>
+      </c>
+      <c r="G62" t="s">
+        <v>53</v>
+      </c>
+      <c r="H62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="D63" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="E63"/>
     </row>
-    <row r="64" spans="1:5">
+    <row r="64" spans="1:8">
       <c r="A64">
         <v>19</v>
       </c>
@@ -1333,20 +1572,29 @@
         <v>1</v>
       </c>
       <c r="C64" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D64" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="E64"/>
-    </row>
-    <row r="65" spans="1:5">
+      <c r="F64" t="s">
+        <v>82</v>
+      </c>
+      <c r="G64" t="s">
+        <v>53</v>
+      </c>
+      <c r="H64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="D65" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="E65"/>
     </row>
-    <row r="66" spans="1:5">
+    <row r="66" spans="1:8">
       <c r="A66">
         <v>20</v>
       </c>
@@ -1354,14 +1602,23 @@
         <v>1</v>
       </c>
       <c r="C66" t="s">
-        <v>59</v>
+        <v>83</v>
       </c>
       <c r="D66" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E66"/>
-    </row>
-    <row r="67" spans="1:5">
+      <c r="F66" t="s">
+        <v>84</v>
+      </c>
+      <c r="G66" t="s">
+        <v>53</v>
+      </c>
+      <c r="H66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67">
         <v>21</v>
       </c>
@@ -1369,86 +1626,95 @@
         <v>1</v>
       </c>
       <c r="C67" t="s">
-        <v>60</v>
+        <v>85</v>
       </c>
       <c r="D67" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E67" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
+        <v>26</v>
+      </c>
+      <c r="F67" t="s">
+        <v>86</v>
+      </c>
+      <c r="G67" t="s">
+        <v>53</v>
+      </c>
+      <c r="H67">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="B68">
         <v>1</v>
       </c>
       <c r="C68" t="s">
-        <v>61</v>
+        <v>87</v>
       </c>
       <c r="D68" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E68" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="B69">
         <v>1</v>
       </c>
       <c r="C69" t="s">
-        <v>62</v>
+        <v>88</v>
       </c>
       <c r="D69" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E69" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="B70">
         <v>1</v>
       </c>
       <c r="C70" t="s">
-        <v>63</v>
+        <v>89</v>
       </c>
       <c r="D70" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E70" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="B71">
         <v>1</v>
       </c>
       <c r="C71" t="s">
-        <v>64</v>
+        <v>90</v>
       </c>
       <c r="D71" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E71" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="B72">
         <v>1</v>
       </c>
       <c r="C72" t="s">
-        <v>65</v>
+        <v>91</v>
       </c>
       <c r="D72" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E72" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73">
         <v>22</v>
       </c>
@@ -1456,74 +1722,83 @@
         <v>1</v>
       </c>
       <c r="C73" t="s">
-        <v>66</v>
+        <v>92</v>
       </c>
       <c r="D73" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E73"/>
-    </row>
-    <row r="74" spans="1:5">
+      <c r="F73" t="s">
+        <v>93</v>
+      </c>
+      <c r="G73" t="s">
+        <v>53</v>
+      </c>
+      <c r="H73">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="B74">
         <v>1</v>
       </c>
       <c r="C74" t="s">
-        <v>67</v>
+        <v>94</v>
       </c>
       <c r="D74" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E74"/>
     </row>
-    <row r="75" spans="1:5">
+    <row r="75" spans="1:8">
       <c r="B75">
         <v>1</v>
       </c>
       <c r="C75" t="s">
-        <v>68</v>
+        <v>95</v>
       </c>
       <c r="D75" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E75"/>
     </row>
-    <row r="76" spans="1:5">
+    <row r="76" spans="1:8">
       <c r="B76">
         <v>1</v>
       </c>
       <c r="C76" t="s">
-        <v>69</v>
+        <v>96</v>
       </c>
       <c r="D76" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E76"/>
     </row>
-    <row r="77" spans="1:5">
+    <row r="77" spans="1:8">
       <c r="B77">
         <v>1</v>
       </c>
       <c r="C77" t="s">
-        <v>70</v>
+        <v>97</v>
       </c>
       <c r="D77" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E77"/>
     </row>
-    <row r="78" spans="1:5">
+    <row r="78" spans="1:8">
       <c r="B78">
         <v>1</v>
       </c>
       <c r="C78" t="s">
-        <v>71</v>
+        <v>98</v>
       </c>
       <c r="D78" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E78"/>
     </row>
-    <row r="79" spans="1:5">
+    <row r="79" spans="1:8">
       <c r="A79">
         <v>23</v>
       </c>
@@ -1531,32 +1806,39 @@
         <v>1</v>
       </c>
       <c r="C79" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D79" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E79"/>
-    </row>
-    <row r="80" spans="1:5">
+      <c r="F79" t="s">
+        <v>99</v>
+      </c>
+      <c r="G79" t="s">
+        <v>100</v>
+      </c>
+      <c r="H79"/>
+    </row>
+    <row r="80" spans="1:8">
       <c r="D80" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="E80"/>
     </row>
-    <row r="81" spans="1:5">
+    <row r="81" spans="1:8">
       <c r="D81" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="E81"/>
     </row>
-    <row r="82" spans="1:5">
+    <row r="82" spans="1:8">
       <c r="D82" t="s">
-        <v>72</v>
+        <v>101</v>
       </c>
       <c r="E82"/>
     </row>
-    <row r="83" spans="1:5">
+    <row r="83" spans="1:8">
       <c r="A83">
         <v>24</v>
       </c>
@@ -1564,12 +1846,19 @@
         <v>1</v>
       </c>
       <c r="C83" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D83"/>
       <c r="E83"/>
-    </row>
-    <row r="84" spans="1:5">
+      <c r="F83" t="s">
+        <v>102</v>
+      </c>
+      <c r="G83" t="s">
+        <v>53</v>
+      </c>
+      <c r="H83"/>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84">
         <v>25</v>
       </c>
@@ -1577,32 +1866,41 @@
         <v>1</v>
       </c>
       <c r="C84" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D84" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E84" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5">
+        <v>64</v>
+      </c>
+      <c r="F84" t="s">
+        <v>103</v>
+      </c>
+      <c r="G84" t="s">
+        <v>53</v>
+      </c>
+      <c r="H84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="D85" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="E85" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="D86" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="E86" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87">
         <v>26</v>
       </c>
@@ -1610,72 +1908,79 @@
         <v>1</v>
       </c>
       <c r="C87" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D87" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="E87" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
+        <v>104</v>
+      </c>
+      <c r="F87" t="s">
+        <v>105</v>
+      </c>
+      <c r="G87" t="s">
+        <v>53</v>
+      </c>
+      <c r="H87"/>
+    </row>
+    <row r="88" spans="1:8">
       <c r="B88">
         <v>1</v>
       </c>
       <c r="C88" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D88" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="E88" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="B89">
         <v>1</v>
       </c>
       <c r="C89" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="D89" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="E89" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="B90">
         <v>1</v>
       </c>
       <c r="C90" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="D90" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="E90" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="B91">
         <v>1</v>
       </c>
       <c r="C91" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="D91" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="E91" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92">
         <v>27</v>
       </c>
@@ -1683,16 +1988,23 @@
         <v>1</v>
       </c>
       <c r="C92" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D92" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="E92" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
+        <v>64</v>
+      </c>
+      <c r="F92">
+        <v>-19</v>
+      </c>
+      <c r="G92" t="s">
+        <v>36</v>
+      </c>
+      <c r="H92"/>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93">
         <v>28</v>
       </c>
@@ -1702,13 +2014,29 @@
       <c r="C93"/>
       <c r="D93"/>
       <c r="E93"/>
-    </row>
-    <row r="94" spans="1:5">
+      <c r="F93">
+        <v>-19</v>
+      </c>
+      <c r="G93" t="s">
+        <v>36</v>
+      </c>
+      <c r="H93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94">
         <v>29</v>
       </c>
-    </row>
-    <row r="95" spans="1:5">
+      <c r="F94">
+        <v>-19</v>
+      </c>
+      <c r="G94" t="s">
+        <v>36</v>
+      </c>
+      <c r="H94"/>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95">
         <v>30</v>
       </c>
@@ -1718,6 +2046,13 @@
       <c r="C95"/>
       <c r="D95"/>
       <c r="E95"/>
+      <c r="F95">
+        <v>-19</v>
+      </c>
+      <c r="G95" t="s">
+        <v>36</v>
+      </c>
+      <c r="H95"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
